--- a/Ing_economica/Repaso4/4. REPASO CUARTO PARCIAL.xlsx
+++ b/Ing_economica/Repaso4/4. REPASO CUARTO PARCIAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Empresas Agrícolas\Desktop\ME\Unidad USB\Examenes PARCIALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\Repaso4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D05A8030-DE1D-464E-8E65-1511FDE79751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24905600-997B-45D0-A7A2-CE8BB51E97E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E6916B60-7023-6843-8FF6-FBF2B6B9FAE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E6916B60-7023-6843-8FF6-FBF2B6B9FAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="PROBLEMA 1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,165 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>n (años)</t>
+  </si>
+  <si>
+    <t>Tasa</t>
+  </si>
+  <si>
+    <t>Retador</t>
+  </si>
+  <si>
+    <t>Defensor ( 2años  e incremento 1 año)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defensor (1 año incremento 2 años)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retador (3 años)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFENSOR</t>
+  </si>
+  <si>
+    <t>DEN. SEGU</t>
+  </si>
+  <si>
+    <t>DENFE. SEGUI</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>VA TOTAL</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAD</t>
+  </si>
+  <si>
+    <t>anual</t>
+  </si>
+  <si>
+    <t>if=i+f+i*f</t>
+  </si>
+  <si>
+    <t>P=</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>i=</t>
+  </si>
+  <si>
+    <t>f=</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>vf=</t>
+  </si>
+  <si>
+    <t>VA(f)</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>VF(f)</t>
+  </si>
+  <si>
+    <t>d)</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>COA</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>VU (años)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>IA</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMAR</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensi VP?</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>TMAR</t>
+  </si>
+  <si>
+    <t>VP Sensi P</t>
+  </si>
+  <si>
+    <t>VP Sensi COA</t>
+  </si>
+  <si>
+    <t>VP Sensi VU</t>
+  </si>
+  <si>
+    <t>VP Sensi IA</t>
+  </si>
+  <si>
+    <t>VP Sensi TMAR</t>
+  </si>
+  <si>
+    <t>VP Sensi S</t>
+  </si>
+  <si>
+    <t>Más sensible es P y el menos sensible es VU</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="171" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -51,13 +207,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,9 +281,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -92,6 +328,1460 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PROBLEMA 3'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$C$22:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"_ ;_-@_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-200200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-228800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-257400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-286000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-314600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-343200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-371800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A354-473F-852A-8CA720F655C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PROBLEMA 3'!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP Sensi P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$D$22:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>94349.368556645582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>283564.68072921142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>762958.47276379599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>226292.93729083403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>342853.92066022079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169092.09981879074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140492.09981879074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A354-473F-852A-8CA720F655C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PROBLEMA 3'!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP Sensi COA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$E$22:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>73872.18793528917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52097.914809074602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30323.64168286015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8549.3685566455824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13224.904569568927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-34999.177695783408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-56773.450821997918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A354-473F-852A-8CA720F655C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PROBLEMA 3'!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP Sensi VU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$F$22:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-29221.696073657309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14287.585873182979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1834.6383135747164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8549.3685566455824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17208.169869720004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24428.392382699589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30449.04249950283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A354-473F-852A-8CA720F655C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PROBLEMA 3'!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP Sensi IA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$G$22:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-143870.54332685599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-93063.906032355444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-42257.268737854902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8549.3685566455824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59356.005851146183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110162.64314564667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160969.28044014715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A354-473F-852A-8CA720F655C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PROBLEMA 3'!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP Sensi TMAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$H$22:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>81098.41115876456</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53983.046553790104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29942.768721081491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8549.3685566455824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10557.438433754956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-27681.864092833741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-43081.668748443597</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A354-473F-852A-8CA720F655C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PROBLEMA 3'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VP Sensi S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$B$22:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PROBLEMA 3'!$I$22:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7281.6504945099587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7704.2231818885193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8126.79586926708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8549.3685566455824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8971.9412440241431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9394.5139314027037</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9817.0866187812644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A354-473F-852A-8CA720F655C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="104757200"/>
+        <c:axId val="99379408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="104757200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99379408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99379408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="104757200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -104,8 +1794,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>822960</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>342900</xdr:rowOff>
         </xdr:to>
@@ -164,10 +1854,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>845820</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -224,8 +1914,8 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>161925</xdr:colOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>868680</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -269,6 +1959,42 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0936FBD2-85BC-997C-DA12-B111164BD117}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -569,26 +2295,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911B8516-F58D-624F-AD5A-8F09326900FF}">
-  <dimension ref="I8:I10"/>
+  <dimension ref="A8:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="9:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="9:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="9:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="36.6" x14ac:dyDescent="0.7">
       <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-70000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>-90000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3">
+        <v>-65000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3">
+        <v>-110000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <f>PV(B11,B14,-B13)</f>
+        <v>-127889.27335640139</v>
+      </c>
+      <c r="E21" s="3">
+        <f>PV(B11,A19,,-B17)</f>
+        <v>-75033.584368003256</v>
+      </c>
+      <c r="F21" s="3">
+        <f>PMT(B11,3,-SUM(D21:E21))</f>
+        <v>-76266.829865361084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <f>PV(B11,1,,-B13)</f>
+        <v>-65882.352941176476</v>
+      </c>
+      <c r="E22" s="3">
+        <f>PV(B11,1,,PV(B11,2,B18))</f>
+        <v>-111768.77671483818</v>
+      </c>
+      <c r="F22" s="4">
+        <f>PMT(B11,3,-SUM(D22:E22))</f>
+        <v>-66768.665850673206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <f>B19</f>
+        <v>-110000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <f>B13</f>
+        <v>-70000</v>
+      </c>
+      <c r="D25" s="6">
+        <f>C25</f>
+        <v>-70000</v>
+      </c>
+      <c r="E25" s="6">
+        <f>B17</f>
+        <v>-90000</v>
+      </c>
+      <c r="F25" s="3">
+        <f>NPV(B11,C25:E25)</f>
+        <v>-202922.85772440466</v>
+      </c>
+      <c r="G25" s="3">
+        <f>PMT(B11,3,-F25)</f>
+        <v>-76266.829865361084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6">
+        <f>C25</f>
+        <v>-70000</v>
+      </c>
+      <c r="D26" s="6">
+        <f>B18</f>
+        <v>-65000</v>
+      </c>
+      <c r="E26" s="6">
+        <f>B18</f>
+        <v>-65000</v>
+      </c>
+      <c r="F26" s="7">
+        <f>NPV(B11,C26:E26)</f>
+        <v>-177651.12965601467</v>
+      </c>
+      <c r="G26" s="7">
+        <f>PMT(B11,3,-F26)</f>
+        <v>-66768.665850673206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6">
+        <f>B19</f>
+        <v>-110000</v>
+      </c>
+      <c r="D27" s="6">
+        <f>C27</f>
+        <v>-110000</v>
+      </c>
+      <c r="E27" s="6">
+        <f>D27</f>
+        <v>-110000</v>
+      </c>
+      <c r="F27" s="3">
+        <f>NPV(B11,C27:E27)</f>
+        <v>-292676.57235904742</v>
+      </c>
+      <c r="G27" s="3">
+        <f>PMT(B11,3,-F27)</f>
+        <v>-110000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="D26" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
@@ -604,8 +2547,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>822960</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>342900</xdr:rowOff>
               </to>
@@ -623,14 +2566,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A26D4C-E0B5-C54B-BC08-E48DF84C85FF}">
-  <dimension ref="A1"/>
+  <dimension ref="A10:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10">
+        <f>B11+B12+B11*B12</f>
+        <v>2.2550000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <f>B15</f>
+        <v>2.2550000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B10</f>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7">
+        <f>-FV(B17,B19,,B18)</f>
+        <v>314377.03519863554</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7">
+        <f>-PV(B12,B19,,B20)</f>
+        <v>233586.76792270542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7">
+        <f>-FV(B12,B19,,B10)</f>
+        <v>302820.3761229291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -648,10 +2708,10 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>845820</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>68580</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -667,14 +2727,512 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655DCA2A-C7AE-FC49-9CCD-4EDB359B8773}">
-  <dimension ref="A1"/>
+  <dimension ref="A11:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="13">
+        <v>-286000</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="14">
+        <v>-39000</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="16">
+        <v>91000</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="19">
+        <v>26000</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="8">
+        <v>-0.3</v>
+      </c>
+      <c r="C22" s="14">
+        <f>$B$11*(1+B22)</f>
+        <v>-200200</v>
+      </c>
+      <c r="D22" s="3">
+        <f>-PV($B$15,$B$13,B12+$B$14,$B$16)+C22</f>
+        <v>94349.368556645582</v>
+      </c>
+      <c r="E22" s="3">
+        <f>-PV($B$15,$B$13,D31+$B$14,$B$16)+$B$11</f>
+        <v>73872.18793528917</v>
+      </c>
+      <c r="F22" s="3">
+        <f>-PV($B$15,E31,$B$12+$B$14,$B$16)+$B$11</f>
+        <v>-29221.696073657309</v>
+      </c>
+      <c r="G22" s="3">
+        <f>-PV($B$15,$B$13,$B$12+F31,$B$16)+$B$11</f>
+        <v>-143870.54332685599</v>
+      </c>
+      <c r="H22" s="3">
+        <f>-PV(G31,$B$13,$B$12+$B$14,$B$16)+$B$11</f>
+        <v>81098.41115876456</v>
+      </c>
+      <c r="I22" s="3">
+        <f>-PV($B$15,$B$13,$B$12+$B$14,H31)+$B$11</f>
+        <v>7281.6504945099587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>-0.2</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" ref="C23:C28" si="0">$B$11*(1+B23)</f>
+        <v>-228800</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" ref="D23:D28" si="1">-PV($B$15,$B$13,B13+$B$14,$B$16)+C23</f>
+        <v>283564.68072921142</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" ref="E23:E28" si="2">-PV($B$15,$B$13,D32+$B$14,$B$16)+$B$11</f>
+        <v>52097.914809074602</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" ref="F23:F28" si="3">-PV($B$15,E32,$B$12+$B$14,$B$16)+$B$11</f>
+        <v>-14287.585873182979</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ref="G23:G28" si="4">-PV($B$15,$B$13,$B$12+F32,$B$16)+$B$11</f>
+        <v>-93063.906032355444</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" ref="H23:H28" si="5">-PV(G32,$B$13,$B$12+$B$14,$B$16)+$B$11</f>
+        <v>53983.046553790104</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" ref="I23:I28" si="6">-PV($B$15,$B$13,$B$12+$B$14,H32)+$B$11</f>
+        <v>7704.2231818885193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="8">
+        <v>-0.1</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" si="0"/>
+        <v>-257400</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="1"/>
+        <v>762958.47276379599</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="2"/>
+        <v>30323.64168286015</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="3"/>
+        <v>-1834.6383135747164</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="4"/>
+        <v>-42257.268737854902</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="5"/>
+        <v>29942.768721081491</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="6"/>
+        <v>8126.79586926708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="0"/>
+        <v>-286000</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="1"/>
+        <v>226292.93729083403</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="2"/>
+        <v>8549.3685566455824</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="3"/>
+        <v>8549.3685566455824</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="4"/>
+        <v>8549.3685566455824</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="5"/>
+        <v>8549.3685566455824</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="6"/>
+        <v>8549.3685566455824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="0"/>
+        <v>-314600</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="1"/>
+        <v>342853.92066022079</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="2"/>
+        <v>-13224.904569568927</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="3"/>
+        <v>17208.169869720004</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="4"/>
+        <v>59356.005851146183</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="5"/>
+        <v>-10557.438433754956</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="6"/>
+        <v>8971.9412440241431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="14">
+        <f t="shared" si="0"/>
+        <v>-343200</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="1"/>
+        <v>169092.09981879074</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="2"/>
+        <v>-34999.177695783408</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="3"/>
+        <v>24428.392382699589</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="4"/>
+        <v>110162.64314564667</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="5"/>
+        <v>-27681.864092833741</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="6"/>
+        <v>9394.5139314027037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="C28" s="14">
+        <f t="shared" si="0"/>
+        <v>-371800</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="1"/>
+        <v>140492.09981879074</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="2"/>
+        <v>-56773.450821997918</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="3"/>
+        <v>30449.04249950283</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="4"/>
+        <v>160969.28044014715</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="5"/>
+        <v>-43081.668748443597</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="6"/>
+        <v>9817.0866187812644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="14">
+        <f>$B$12*(1+B22)</f>
+        <v>-27300</v>
+      </c>
+      <c r="E31">
+        <f>$B$13*(1+B22)</f>
+        <v>9.1</v>
+      </c>
+      <c r="F31" s="14">
+        <f>$B$14*(1+B22)</f>
+        <v>63699.999999999993</v>
+      </c>
+      <c r="G31" s="2">
+        <f>$B$15*(1+B22)</f>
+        <v>0.105</v>
+      </c>
+      <c r="H31" s="3">
+        <f>$B$16*(1+B22)</f>
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D32" s="14">
+        <f>$B$12*(1+B23)</f>
+        <v>-31200</v>
+      </c>
+      <c r="E32">
+        <f>$B$13*(1+B23)</f>
+        <v>10.4</v>
+      </c>
+      <c r="F32" s="14">
+        <f>$B$14*(1+B23)</f>
+        <v>72800</v>
+      </c>
+      <c r="G32" s="2">
+        <f>$B$15*(1+B23)</f>
+        <v>0.12</v>
+      </c>
+      <c r="H32" s="3">
+        <f>$B$16*(1+B23)</f>
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="14">
+        <f>$B$12*(1+B24)</f>
+        <v>-35100</v>
+      </c>
+      <c r="E33">
+        <f>$B$13*(1+B24)</f>
+        <v>11.700000000000001</v>
+      </c>
+      <c r="F33" s="14">
+        <f>$B$14*(1+B24)</f>
+        <v>81900</v>
+      </c>
+      <c r="G33" s="2">
+        <f>$B$15*(1+B24)</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H33" s="3">
+        <f>$B$16*(1+B24)</f>
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="14">
+        <f>$B$12*(1+B25)</f>
+        <v>-39000</v>
+      </c>
+      <c r="E34">
+        <f>$B$13*(1+B25)</f>
+        <v>13</v>
+      </c>
+      <c r="F34" s="14">
+        <f>$B$14*(1+B25)</f>
+        <v>91000</v>
+      </c>
+      <c r="G34" s="2">
+        <f>$B$15*(1+B25)</f>
+        <v>0.15</v>
+      </c>
+      <c r="H34" s="3">
+        <f>$B$16*(1+B25)</f>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="14">
+        <f>$B$12*(1+B26)</f>
+        <v>-42900</v>
+      </c>
+      <c r="E35">
+        <f>$B$13*(1+B26)</f>
+        <v>14.3</v>
+      </c>
+      <c r="F35" s="14">
+        <f>$B$14*(1+B26)</f>
+        <v>100100.00000000001</v>
+      </c>
+      <c r="G35" s="2">
+        <f>$B$15*(1+B26)</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H35" s="3">
+        <f>$B$16*(1+B26)</f>
+        <v>28600.000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D36" s="14">
+        <f>$B$12*(1+B27)</f>
+        <v>-46800</v>
+      </c>
+      <c r="E36">
+        <f>$B$13*(1+B27)</f>
+        <v>15.6</v>
+      </c>
+      <c r="F36" s="14">
+        <f>$B$14*(1+B27)</f>
+        <v>109200</v>
+      </c>
+      <c r="G36" s="2">
+        <f>$B$15*(1+B27)</f>
+        <v>0.18</v>
+      </c>
+      <c r="H36" s="3">
+        <f>$B$16*(1+B27)</f>
+        <v>31200</v>
+      </c>
+      <c r="J36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D37" s="14">
+        <f>$B$12*(1+B28)</f>
+        <v>-50700</v>
+      </c>
+      <c r="E37">
+        <f>$B$13*(1+B28)</f>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="F37" s="14">
+        <f>$B$14*(1+B28)</f>
+        <v>118300</v>
+      </c>
+      <c r="G37" s="2">
+        <f>$B$15*(1+B28)</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="H37" s="3">
+        <f>$B$16*(1+B28)</f>
+        <v>33800</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -692,8 +3250,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>868680</xdr:colOff>
                 <xdr:row>9</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
